--- a/ES_WBS.xlsx
+++ b/ES_WBS.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimchanyoung/Desktop/Development/Portfolio/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0DF099-3656-3B4A-881C-5F6B95F1AAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD41767-5559-AF43-A24C-DF364C8DE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="1" xr2:uid="{A08CB48A-7367-164A-9621-37F7B14CD44F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A08CB48A-7367-164A-9621-37F7B14CD44F}"/>
   </bookViews>
   <sheets>
     <sheet name="ES Project WBS" sheetId="2" r:id="rId1"/>
     <sheet name="Part 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part 1'!$A$3:$Q$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Part 1'!$A$3:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.08.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.08.06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,10 +247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.08.09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.08.14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -394,18 +386,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단어 검색 화면 개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문장 검색 화면 개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.08.13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,6 +419,22 @@
   </si>
   <si>
     <t>AI 검색 기능 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 기능 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 Template 만들기 (HTML)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 연결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 검색 화면 개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -1097,16 +1093,16 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P4" s="28"/>
     </row>
@@ -1157,10 +1153,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:16">
@@ -1378,11 +1374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1115617-EA62-014B-8C80-4797FEB99E19}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="108" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1438,13 +1433,13 @@
         <v>3</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1">
+    <row r="4" spans="1:19">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -1467,16 +1462,16 @@
         <v>20</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="30">
-        <f>(P5+P10+P21+P30)/4</f>
-        <v>0.34499999999999997</v>
+        <f>(P5+P10+P20+P29)/4</f>
+        <v>0.46145833333333336</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:19" hidden="1">
+    <row r="5" spans="1:19">
       <c r="A5" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -1499,16 +1494,16 @@
         <v>20</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="29">
         <f>SUM(P6:P9)/COUNTA(A5:A9)</f>
-        <v>0.55999999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:19" hidden="1">
+    <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1528,22 +1523,22 @@
         <v>15</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="34">
         <v>0.9</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" hidden="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1561,22 +1556,22 @@
         <v>21</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="34">
         <v>0.9</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" hidden="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1594,27 +1589,27 @@
         <v>22</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="34">
         <v>1</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1624,29 +1619,29 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="37">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" hidden="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1660,21 +1655,21 @@
         <v>16</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="29">
-        <f>SUM(P11:P20)/COUNTA(A11:A20)</f>
-        <v>0.57000000000000006</v>
+        <f>SUM(P11:P19)/COUNTA(A11:A19)</f>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:19" hidden="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1695,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="34">
@@ -1703,14 +1698,14 @@
       </c>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:19" hidden="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -1720,13 +1715,13 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="34">
@@ -1734,14 +1729,14 @@
       </c>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:19" hidden="1">
+    <row r="13" spans="1:19">
       <c r="A13" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -1757,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="34">
@@ -1765,14 +1760,14 @@
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:19" hidden="1">
+    <row r="14" spans="1:19">
       <c r="A14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1785,25 +1780,27 @@
         <v>22</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="34">
         <v>0.9</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1816,25 +1813,27 @@
         <v>24</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="34">
         <v>0.9</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="Q15" s="15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -1847,25 +1846,27 @@
         <v>24</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="34">
         <v>0.9</v>
       </c>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" hidden="1">
+      <c r="Q16" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -1875,13 +1876,13 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="17" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="34">
@@ -1889,14 +1890,14 @@
       </c>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" hidden="1">
+    <row r="18" spans="1:17">
       <c r="A18" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -1906,13 +1907,13 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="17" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="34">
@@ -1920,14 +1921,14 @@
       </c>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" hidden="1">
+    <row r="19" spans="1:17">
       <c r="A19" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1937,13 +1938,13 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="34">
@@ -1951,77 +1952,77 @@
       </c>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" hidden="1">
-      <c r="A20" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" hidden="1">
-      <c r="A21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="29">
-        <f>SUM(P22:P29)/COUNTA(A22:A29)</f>
-        <v>0.25</v>
-      </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" hidden="1">
+      <c r="M20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="29">
+        <f>SUM(P21:P28)/COUNTA(A21:A28)</f>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="18"/>
+      <c r="P21" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -2031,28 +2032,28 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O22" s="18"/>
-      <c r="P22" s="26">
+      <c r="P22" s="34">
         <v>1</v>
       </c>
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2062,28 +2063,30 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="34">
         <v>1</v>
       </c>
-      <c r="Q23" s="15"/>
+      <c r="Q23" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2093,30 +2096,28 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2126,28 +2127,30 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="15"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -2157,13 +2160,13 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="17" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="34">
@@ -2171,9 +2174,9 @@
       </c>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" hidden="1">
+    <row r="27" spans="1:17">
       <c r="A27" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2188,13 +2191,13 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="34">
@@ -2202,14 +2205,14 @@
       </c>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2219,13 +2222,13 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="34">
@@ -2233,70 +2236,70 @@
       </c>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" hidden="1">
-      <c r="A29" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="34">
+    <row r="29" spans="1:17">
+      <c r="A29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="29">
+        <f>SUM(P30:P32)/COUNTA(A30:A32)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="15"/>
-    </row>
-    <row r="30" spans="1:17" hidden="1">
-      <c r="A30" s="10" t="s">
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="29">
-        <f>SUM(P31:P33)/COUNTA(A31:A33)</f>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="34">
         <v>0</v>
       </c>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" hidden="1">
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="16" t="s">
         <v>71</v>
       </c>
@@ -2313,13 +2316,13 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M31" s="17" t="s">
         <v>75</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O31" s="15"/>
       <c r="P31" s="34">
@@ -2327,14 +2330,14 @@
       </c>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" hidden="1">
+    <row r="32" spans="1:17">
       <c r="A32" s="16" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="31"/>
       <c r="D32" s="15" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2344,13 +2347,13 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O32" s="15"/>
       <c r="P32" s="34">
@@ -2358,51 +2361,20 @@
       </c>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" hidden="1">
-      <c r="A33" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O33" s="15"/>
-      <c r="P33" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="15"/>
-    </row>
-    <row r="34" spans="1:17">
+    <row r="33" spans="12:13">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="12:13">
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="12:13">
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:17">
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:Q33" xr:uid="{B1115617-EA62-014B-8C80-4797FEB99E19}">
+  <autoFilter ref="A3:Q32" xr:uid="{B1115617-EA62-014B-8C80-4797FEB99E19}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
@@ -2412,13 +2384,6 @@
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="2023.08.05"/>
-        <filter val="2023.08.06"/>
-        <filter val="2023.08.07"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B3:K3"/>

--- a/ES_WBS.xlsx
+++ b/ES_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimchanyoung/Desktop/Development/Portfolio/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD41767-5559-AF43-A24C-DF364C8DE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B8BFB-1C19-FB4E-BA2A-7FAABF6D6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A08CB48A-7367-164A-9621-37F7B14CD44F}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{A08CB48A-7367-164A-9621-37F7B14CD44F}"/>
   </bookViews>
   <sheets>
     <sheet name="ES Project WBS" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -427,10 +427,6 @@
   </si>
   <si>
     <t>비밀번호 찾기 Template 만들기 (HTML)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 연결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1376,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1115617-EA62-014B-8C80-4797FEB99E19}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="108" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1467,7 +1463,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="30">
         <f>(P5+P10+P20+P29)/4</f>
-        <v>0.46145833333333336</v>
+        <v>0.47979166666666667</v>
       </c>
       <c r="Q4" s="23"/>
     </row>
@@ -1499,7 +1495,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="29">
         <f>SUM(P6:P9)/COUNTA(A5:A9)</f>
-        <v>0.6</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
@@ -1629,7 +1625,7 @@
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>94</v>
@@ -1663,7 +1659,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="29">
         <f>SUM(P11:P19)/COUNTA(A11:A19)</f>
-        <v>0.6333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
@@ -1787,11 +1783,9 @@
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="16" t="s">
@@ -1820,11 +1814,9 @@
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="16" t="s">
@@ -1853,11 +1845,9 @@
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="16" t="s">
@@ -1928,7 +1918,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>

--- a/ES_WBS.xlsx
+++ b/ES_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimchanyoung/Desktop/Development/Portfolio/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B8BFB-1C19-FB4E-BA2A-7FAABF6D6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA904549-7F04-8343-9176-3D6C4226331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{A08CB48A-7367-164A-9621-37F7B14CD44F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="1" xr2:uid="{A08CB48A-7367-164A-9621-37F7B14CD44F}"/>
   </bookViews>
   <sheets>
     <sheet name="ES Project WBS" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.08.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.08.14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,10 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.08.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.08.16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -390,22 +382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UI설계 문장 노트, 단어 검색, 문장 검색, 관리자 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문장 노트, 단어 검색, 문장 검색, 관리자 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단어장, 문장 노트 DB설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능 개발 시점에 작성 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,11 +402,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 찾기 Template 만들기 (HTML)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AI 검색 화면 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 변경</t>
+  </si>
+  <si>
+    <t>일정 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검 : 개발중 추가된 항목 문서 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,8 +526,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,8 +573,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -610,6 +616,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +757,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1077,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -1089,16 +1116,16 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -1122,7 +1149,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P4" s="28"/>
     </row>
@@ -1149,10 +1176,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:16">
@@ -1373,7 +1400,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1429,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>6</v>
@@ -1455,17 +1482,19 @@
         <v>16</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="30">
         <f>(P5+P10+P20+P29)/4</f>
-        <v>0.47979166666666667</v>
-      </c>
-      <c r="Q4" s="23"/>
+        <v>0.50583333333333325</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="10">
@@ -1487,10 +1516,10 @@
         <v>15</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="29">
@@ -1519,22 +1548,22 @@
         <v>15</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="34">
         <v>0.9</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1552,22 +1581,22 @@
         <v>21</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="34">
         <v>0.9</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1585,17 +1614,17 @@
         <v>22</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="34">
         <v>1</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1618,22 +1647,22 @@
         <v>29</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="37">
         <v>0.4</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -1651,21 +1680,21 @@
         <v>16</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="29">
         <f>SUM(P11:P19)/COUNTA(A11:A19)</f>
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1686,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="34">
@@ -1696,7 +1725,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1717,7 +1746,7 @@
         <v>40</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="34">
@@ -1727,7 +1756,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1748,7 +1777,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="34">
@@ -1776,10 +1805,10 @@
         <v>22</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="34">
@@ -1807,10 +1836,10 @@
         <v>24</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="34">
@@ -1820,7 +1849,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1838,10 +1867,10 @@
         <v>24</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="34">
@@ -1851,7 +1880,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1866,23 +1895,25 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1897,28 +1928,30 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="34">
         <v>0</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="39" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1928,23 +1961,25 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="17" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="34">
         <v>0</v>
       </c>
-      <c r="Q19" s="15"/>
+      <c r="Q19" s="39" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1962,21 +1997,21 @@
         <v>27</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="29">
         <f>SUM(P21:P28)/COUNTA(A21:A28)</f>
-        <v>0.61250000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -1997,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="26">
@@ -2007,7 +2042,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2028,7 +2063,7 @@
         <v>29</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="34">
@@ -2038,7 +2073,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2059,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="34">
@@ -2071,7 +2106,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2092,7 +2127,7 @@
         <v>50</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="34">
@@ -2102,12 +2137,12 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2120,22 +2155,20 @@
         <v>23</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2150,23 +2183,25 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2181,28 +2216,30 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="17" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="34">
         <v>0</v>
       </c>
-      <c r="Q27" s="15"/>
+      <c r="Q27" s="40" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2212,27 +2249,29 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="17" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="34">
         <v>0</v>
       </c>
-      <c r="Q28" s="15"/>
+      <c r="Q28" s="40" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2243,13 +2282,13 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="6" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="29">
@@ -2260,12 +2299,12 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="31"/>
       <c r="D30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -2275,13 +2314,13 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="17" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O30" s="15"/>
       <c r="P30" s="34">
@@ -2291,12 +2330,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="31"/>
       <c r="D31" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -2306,13 +2345,13 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="17" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O31" s="15"/>
       <c r="P31" s="34">
@@ -2322,12 +2361,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="31"/>
       <c r="D32" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2337,13 +2376,13 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="17" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M32" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O32" s="15"/>
       <c r="P32" s="34">
